--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T09:22:51+00:00</t>
+    <t>2022-03-02T09:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T09:32:49+00:00</t>
+    <t>2022-03-02T09:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
